--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_30_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_30_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35289.91103531865</v>
+        <v>7018841.827624754</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35289.91103531865</v>
+        <v>7018841.827624754</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21790.07036784341</v>
+        <v>1315345.250839723</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21790.07036784341</v>
+        <v>1315345.250839723</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1267482750.575472</v>
+        <v>52366557.57408831</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12503.00633705675</v>
+        <v>1380730.10505724</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22765.17351672189</v>
+        <v>2391961.117319548</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33027.34069638703</v>
+        <v>3403192.129581858</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43730.13847939296</v>
+        <v>4412844.745855956</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>54435.28411948588</v>
+        <v>5422746.234981277</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>65140.42975957879</v>
+        <v>6432647.724106594</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>75845.5753996717</v>
+        <v>7442549.213231908</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>86551.81827950876</v>
+        <v>8452450.702357223</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>97256.4627654199</v>
+        <v>9462002.784195023</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>107961.1104804262</v>
+        <v>10471649.42118434</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>118666.7020402724</v>
+        <v>11481296.05817365</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>129371.8216776987</v>
+        <v>12490942.69516298</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>140076.9413151249</v>
+        <v>13500589.3321523</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>150781.5890301312</v>
+        <v>14510235.96914163</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>161486.7086675575</v>
+        <v>15519882.60613095</v>
       </c>
     </row>
   </sheetData>
@@ -27037,25 +27037,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>288</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27064,7 +27064,7 @@
         <v>288</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>781</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
